--- a/sources/case/GetOrganizationInfo.xlsx
+++ b/sources/case/GetOrganizationInfo.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -71,9 +71,6 @@
     <t>items</t>
   </si>
   <si>
-    <t>[{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","user_image":"","mobile":"13200000009","employee_no":"30","uuid":"7e3324f3-b2e4-11e7-93d8-5254001aba5d","user_id":"becbb020-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试20","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","user_image":"","mobile":"13200000008","employee_no":"29","uuid":"7e31ef71-b2e4-11e7-93d8-5254001aba5d","user_id":"be62ca2a-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试19","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","user_image":"","mobile":"13200000007","employee_no":"28","uuid":"7e3142f6-b2e4-11e7-93d8-5254001aba5d","user_id":"bdff6d76-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试18","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","user_image":"","mobile":"13200000006","employee_no":"27","uuid":"7e306cb1-b2e4-11e7-93d8-5254001aba5d","user_id":"bd938976-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试17","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","user_image":"","mobile":"13200000005","employee_no":"26","uuid":"7e2fc6f6-b2e4-11e7-93d8-5254001aba5d","user_id":"bd017a5d-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试16","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"00b19169-fc38-4e51-a99f-98f31ccaa46d","user_image":"","mobile":"13100000009","employee_no":"20","uuid":"7e2bb13d-b2e4-11e7-93d8-5254001aba5d","user_id":"b9f699a5-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试10","position":"岗位2","email":"","position_ID":"b7343a82-b95d-11e7-9864-5254001aba5d","status":"in-service"}]</t>
-  </si>
-  <si>
     <t>/hr/v1/simple-employees?status=active&amp;organization_ID={organization_ID}&amp;limit=100&amp;offset=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +81,9 @@
   <si>
     <t>GetOrganizationInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"tenant_id":"$csv{data.Tenant.microfastup.tenant_id}","user_image":"","mobile":"13200000009","employee_no":"30","uuid":"7e3324f3-b2e4-11e7-93d8-5254001aba5d","user_id":"becbb020-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试20","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"$csv{data.Tenant.microfastup.tenant_id}","user_image":"","mobile":"13200000008","employee_no":"29","uuid":"7e31ef71-b2e4-11e7-93d8-5254001aba5d","user_id":"be62ca2a-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试19","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"$csv{data.Tenant.microfastup.tenant_id}","user_image":"","mobile":"13200000007","employee_no":"28","uuid":"7e3142f6-b2e4-11e7-93d8-5254001aba5d","user_id":"bdff6d76-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试18","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"$csv{data.Tenant.microfastup.tenant_id}","user_image":"","mobile":"13200000006","employee_no":"27","uuid":"7e306cb1-b2e4-11e7-93d8-5254001aba5d","user_id":"bd938976-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试17","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"$csv{data.Tenant.microfastup.tenant_id}","user_image":"","mobile":"13200000005","employee_no":"26","uuid":"7e2fc6f6-b2e4-11e7-93d8-5254001aba5d","user_id":"bd017a5d-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试16","position":"","email":"","position_ID":"","status":"in-service"},{"tenant_id":"$csv{data.Tenant.microfastup.tenant_id}","user_image":"","mobile":"13100000009","employee_no":"20","uuid":"7e2bb13d-b2e4-11e7-93d8-5254001aba5d","user_id":"b9f699a5-7e60-11e7-ae0f-00163e007053","organization":"部门2","organization_ID":"b6ec12dc-b95d-11e7-9864-5254001aba5d","name":"测试10","position":"岗位2","email":"","position_ID":"b7343a82-b95d-11e7-9864-5254001aba5d","status":"in-service"}]</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -450,7 +450,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,13 +537,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
